--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32478-d223954-Reviews-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-TownePlace-Suites-Los-Angeles-LAXManhattan-Beach.h790669.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,489 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r583502998-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>32478</t>
+  </si>
+  <si>
+    <t>223954</t>
+  </si>
+  <si>
+    <t>583502998</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Great for families and business travelers</t>
+  </si>
+  <si>
+    <t>This hotel was one of my favorites for business in LA. The front staff was very welcoming, pleasant and professional, especially Veronica. Had a good continental breakfast. Suites had full kitchen. Location is within walking distance to shopping and restaurants. Has laundry facilities on site which was a life saver. Also has an outdoor pool</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r582324607-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>582324607</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Hotel Review</t>
+  </si>
+  <si>
+    <t>The lovely lady at the front desk was very nice and did a great job. The room itself smelled like mildew and dusty. I think In that area having to pay for parking is a little stupid. Free breakfast was not good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>art l, Front Office Manager at TownePlace Suites Los Angeles LAX/Manhattan Beach, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>The lovely lady at the front desk was very nice and did a great job. The room itself smelled like mildew and dusty. I think In that area having to pay for parking is a little stupid. Free breakfast was not good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r575984981-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>575984981</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable, clean, &amp; free breakfast </t>
+  </si>
+  <si>
+    <t>I had a free night because of my rewards from Marriott, so I figured I would try this hotel. Very pleased with the location &amp; the property. I arrived a few minutes after 3:00 PM &amp; didn’t think they would have my room ready, but it was. The girl who checked me in was knowledgeable &amp; efficient. I was very pleased with my check-in. The rooms were bigger then I had pictured. Full kitchen &amp; a nice big desk along with a pullout couch. The bath amenities were lovely as well. Since these suites are designed w/long-term guests in mind they have full size shower gel, shampoo &amp; conditioner in the shower. The property is well maintained &amp; the pool area looked clean as well. They have a free breakfast &amp; the fitness room is open 24 hours. Parking is $15 a day &amp; is on-site. Earplugs are also provided, but I could not hear any outside noise. I could hear our neighbors talking for a bit. They don’t offer Netflix like many of the Marriott Brands now do. I can be a hotel snob, but I would definitely come back here. The metro link is very close. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I had a free night because of my rewards from Marriott, so I figured I would try this hotel. Very pleased with the location &amp; the property. I arrived a few minutes after 3:00 PM &amp; didn’t think they would have my room ready, but it was. The girl who checked me in was knowledgeable &amp; efficient. I was very pleased with my check-in. The rooms were bigger then I had pictured. Full kitchen &amp; a nice big desk along with a pullout couch. The bath amenities were lovely as well. Since these suites are designed w/long-term guests in mind they have full size shower gel, shampoo &amp; conditioner in the shower. The property is well maintained &amp; the pool area looked clean as well. They have a free breakfast &amp; the fitness room is open 24 hours. Parking is $15 a day &amp; is on-site. Earplugs are also provided, but I could not hear any outside noise. I could hear our neighbors talking for a bit. They don’t offer Netflix like many of the Marriott Brands now do. I can be a hotel snob, but I would definitely come back here. The metro link is very close. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r566724115-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>566724115</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Only if the price is very good</t>
+  </si>
+  <si>
+    <t>Well located to LAX (4 miles).Room have a small and convenient kitchen.Regular breakfast.Lousy check-in.$12 for parking can't see the reason for that (large parking lot).No recognition for Gold members.Terrible house keeping, room stayed dirty, shower soap dispenser empty (good to realize that when in the shower).Will come back? Only with a very atracttive rateMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>art l, Manager at TownePlace Suites Los Angeles LAX/Manhattan Beach, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Well located to LAX (4 miles).Room have a small and convenient kitchen.Regular breakfast.Lousy check-in.$12 for parking can't see the reason for that (large parking lot).No recognition for Gold members.Terrible house keeping, room stayed dirty, shower soap dispenser empty (good to realize that when in the shower).Will come back? Only with a very atracttive rateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r565173219-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>565173219</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Inside And Outside Walls Are Not Sound Proofed</t>
+  </si>
+  <si>
+    <t>There is no sound insulation in the walls, and the windows do not seal tightly. You hear every noise from the neighboring room. You hear your neighbors talking, TV, shower, snoring, toilet, and doors. You get a lot of loud road noise coming through and around the very poor quality windows. The windows do not seal well. A whole lot of loud road noise comes through the outside wall as well. I stayed in 5 different Marriott Hotels during my 7 night LA tour and this Hotel is the only one I do not recommend, because of the extreme amount of inside and outside noise. Price was high for rooms that have major loud noise issues.   MoreShow less</t>
+  </si>
+  <si>
+    <t>There is no sound insulation in the walls, and the windows do not seal tightly. You hear every noise from the neighboring room. You hear your neighbors talking, TV, shower, snoring, toilet, and doors. You get a lot of loud road noise coming through and around the very poor quality windows. The windows do not seal well. A whole lot of loud road noise comes through the outside wall as well. I stayed in 5 different Marriott Hotels during my 7 night LA tour and this Hotel is the only one I do not recommend, because of the extreme amount of inside and outside noise. Price was high for rooms that have major loud noise issues.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r552279990-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>552279990</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>So Close to a 5 rating!</t>
+  </si>
+  <si>
+    <t>We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide...We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide ear plugs just in case.  But we barely noticed it.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide...We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide ear plugs just in case.  But we barely noticed it.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r549334304-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>549334304</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience </t>
+  </si>
+  <si>
+    <t>Needed a hotel near LAX as we arrived late on Christmas night (eventually staying in Anaheim). Location was a short uber ride from LAX, easy with no traffic. There to greet us at the front desk was Rolando who was really nice and helpful (thankful for him to work on Christmas night). Room was equipped with a full kitchen which made it easy for us to heat up some pizza which you could buy near front desk. The studio also had a couch/pull out bed. Breakfast in the morning was from 6a-9a, and provided everything we could want: cereal, bagels, waffles, oatmeal, fruits, toast, yogurt, orange juice, coffee, hot chocolate etc. The light rail is nearby. And across the street are some shops like REI, Old Navy, etc. Very affordable cost, will definitely make this a part of our future LA visits! Good job everyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Needed a hotel near LAX as we arrived late on Christmas night (eventually staying in Anaheim). Location was a short uber ride from LAX, easy with no traffic. There to greet us at the front desk was Rolando who was really nice and helpful (thankful for him to work on Christmas night). Room was equipped with a full kitchen which made it easy for us to heat up some pizza which you could buy near front desk. The studio also had a couch/pull out bed. Breakfast in the morning was from 6a-9a, and provided everything we could want: cereal, bagels, waffles, oatmeal, fruits, toast, yogurt, orange juice, coffee, hot chocolate etc. The light rail is nearby. And across the street are some shops like REI, Old Navy, etc. Very affordable cost, will definitely make this a part of our future LA visits! Good job everyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r543418798-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>543418798</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WONDERFUL </t>
+  </si>
+  <si>
+    <t>What are you haters talking aboutFor those of u with negative reviews I simply don’t get itThis place was lovely.  Wonderful staff and front desk.  Every staff member we passed gave a sincere greetingSpotless roomsConveniently located I would stay here any time againPerfect</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r543199053-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>543199053</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Conveniently Location near airport and beach</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located near the beach and airport and can be reached using the light rail from the airport. They provide breakfast, and I liked the fact that since I was leaving before it was served, I asked if they could give me my breakfast before hand that I could keep in my room,and  they did: bananas, yogurt and granola bars.  There was a kitchen in the room with coffee machine.  There is also free WIFI.The hotel is located across the street from an outdoor shopping area where there are restaurants,  REI, and a Trader Joe's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r511082138-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>511082138</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Perfect Long Term Stay Property</t>
+  </si>
+  <si>
+    <t>My family and I just stayed here for one night (wish we needed to stay more - this is a perfect long term stay property). The hotel is very easy to find with great freeway and Metro access. The property is exactly what it is designed to be. It has every amenity it promised, including a clean full suite with full kitchen (and a great closet!!! - I have stayed at much more expensive hotels with a much less organized closet). We appreciated that every person that we came into contact with was smiling and pleasant. Every area we visited from our room, to the gym, to the breakfast area, and the restrooms was clean and well maintained. The breakfast was good and hot. The parking was convenient. The best part of the hotel was its staff.and their commitment to making this property a wonderful place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>My family and I just stayed here for one night (wish we needed to stay more - this is a perfect long term stay property). The hotel is very easy to find with great freeway and Metro access. The property is exactly what it is designed to be. It has every amenity it promised, including a clean full suite with full kitchen (and a great closet!!! - I have stayed at much more expensive hotels with a much less organized closet). We appreciated that every person that we came into contact with was smiling and pleasant. Every area we visited from our room, to the gym, to the breakfast area, and the restrooms was clean and well maintained. The breakfast was good and hot. The parking was convenient. The best part of the hotel was its staff.and their commitment to making this property a wonderful place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r506778943-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>506778943</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>TownePlace Suites</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off...I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off two times with either someone burning their food or someone had set off something in their room that the alarm kept going off and on one night, so I did not really get a good nights sleep throughout my stay. The hotel does have a recycle bin but you have to give your recycles to the front desk for them to take. I wished they would have recycle bins throughout the hotel. There is a outside swimming pool and they do have an exercise room.  The breakfast area is very small that it can get congested with people first thing in the morning and the breakfast is basic to include sausage patties and egg patties every day and for three weeks it does get tiring having the same thing over and over so there was no switching between bacon and the sausage. They do have a public lobby computer but there is no privacy to use it as it faces the people walking by as well as the front desk and there was not a lot of space to hold your papers.  The hotel does allow dogs and I noticed they have doggie bags outside on the lawn for the dogs business. Across the street is Old Navy, Barnes and Nobles, Trader Joes and some restaurants. The hotel is also a few minutes away from Northrop Grumman as well as Cosco, a Food 4 Less grocery store at Rosecrans and Ocean Park which is much closer than the Ralphs grocery store which is 10 minutes away on Manhattan Beach Blvd, a Target 10 minutes away also on Manhattan Beach Blvd, a GREAT pizza place called Valentino's Pizza on Aviation and Manhattan Beach Blvd., a FedEx Office at Rosecrans and Ocean Park, a gas station a couple blocks away on Aviation Blvd, a soccer/sports track 6 blocks away on Aviation Blvd, the movie studio MBS is also a block away which was cool to know and the Manhattan Beach itself is also 10 minutes away. The hotel staff to include the housekeeping staff were all very helpful and pleasant which makes a long business stay better and more appreciative.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off...I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off two times with either someone burning their food or someone had set off something in their room that the alarm kept going off and on one night, so I did not really get a good nights sleep throughout my stay. The hotel does have a recycle bin but you have to give your recycles to the front desk for them to take. I wished they would have recycle bins throughout the hotel. There is a outside swimming pool and they do have an exercise room.  The breakfast area is very small that it can get congested with people first thing in the morning and the breakfast is basic to include sausage patties and egg patties every day and for three weeks it does get tiring having the same thing over and over so there was no switching between bacon and the sausage. They do have a public lobby computer but there is no privacy to use it as it faces the people walking by as well as the front desk and there was not a lot of space to hold your papers.  The hotel does allow dogs and I noticed they have doggie bags outside on the lawn for the dogs business. Across the street is Old Navy, Barnes and Nobles, Trader Joes and some restaurants. The hotel is also a few minutes away from Northrop Grumman as well as Cosco, a Food 4 Less grocery store at Rosecrans and Ocean Park which is much closer than the Ralphs grocery store which is 10 minutes away on Manhattan Beach Blvd, a Target 10 minutes away also on Manhattan Beach Blvd, a GREAT pizza place called Valentino's Pizza on Aviation and Manhattan Beach Blvd., a FedEx Office at Rosecrans and Ocean Park, a gas station a couple blocks away on Aviation Blvd, a soccer/sports track 6 blocks away on Aviation Blvd, the movie studio MBS is also a block away which was cool to know and the Manhattan Beach itself is also 10 minutes away. The hotel staff to include the housekeeping staff were all very helpful and pleasant which makes a long business stay better and more appreciative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r498249418-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>498249418</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for an extended stay or family visit</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located to several restaurants, malls, and freeway. Rooms are nicely sized and contain a microwave, refrigerator, iron, etc.  Washing is available on site,  Breakfast was a nice treat and covered most what anyone would want.  Front desk staff were warm and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Kaylah F, Manager at TownePlace Suites Los Angeles LAX/Manhattan Beach, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located to several restaurants, malls, and freeway. Rooms are nicely sized and contain a microwave, refrigerator, iron, etc.  Washing is available on site,  Breakfast was a nice treat and covered most what anyone would want.  Front desk staff were warm and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r489500488-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>489500488</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Great Location Hotel with Excellent customer service</t>
+  </si>
+  <si>
+    <t>Stayed there with family in 2 bedroom suite, very spacious room with kitchen, excellent customer service especially Barbara in front desk, very nice hot breakfast every day. safe and nice location. Tip: Don't take room near metro train tracks else noisy till late night. Daily housekeeping is plus.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r481104681-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>481104681</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Great Location For The Price!</t>
+  </si>
+  <si>
+    <t>This hotel was newer and the location was great. We were 10-15 minutes from shops, restaurants and the beach. Another 20 minutes and we were downtown. It is only a 10 minute drive from LAX. Rooms were large and very clean. Bed was super cozy as well. This hotel and location are not fancy but I would certainly stay here again when visiting the LA area. I really enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was newer and the location was great. We were 10-15 minutes from shops, restaurants and the beach. Another 20 minutes and we were downtown. It is only a 10 minute drive from LAX. Rooms were large and very clean. Bed was super cozy as well. This hotel and location are not fancy but I would certainly stay here again when visiting the LA area. I really enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r475778099-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>475778099</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Lobby area none</t>
+  </si>
+  <si>
+    <t>Very nice and to the Marriot standards. Room small but accomodating. Staff ok no one wowed me on my stay with outstanding customer service. No explanation at check in on amenities other than the breakfast. I had to ask about other amenities the hotel is close to the rail car and you hear the noise. No one mentioned the cost of daily parking at check in and had I not read it on the website this would have caused a problem when I recieved my bill. Not sure why this location has a $10 daily parking fee but I would look around next time for a room with free parking at $150 a night parking in this unsecure lot should be included. Very dissapointed with that charge from the Marriot. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Very nice and to the Marriot standards. Room small but accomodating. Staff ok no one wowed me on my stay with outstanding customer service. No explanation at check in on amenities other than the breakfast. I had to ask about other amenities the hotel is close to the rail car and you hear the noise. No one mentioned the cost of daily parking at check in and had I not read it on the website this would have caused a problem when I recieved my bill. Not sure why this location has a $10 daily parking fee but I would look around next time for a room with free parking at $150 a night parking in this unsecure lot should be included. Very dissapointed with that charge from the Marriot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r464393445-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>464393445</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Location good in some ways</t>
+  </si>
+  <si>
+    <t>Originally selected because of relative proximity to beaches/waterfront and ease of getting to LAX. Both proved correct. Easy access to freeways and close by shopping (would be walking distance, but across some busy roads).  It wasn't very convenient to Hollywood or downtown or the hiking north of Pasadena, but traffic was easy on the weekends; horrific Friday afternoon and evening.  Charge for parking. Not the classiest clientele in the breakfast area. Rooms clean, with sitting area. Relatively small bathrooms.  Did not experience airport noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Originally selected because of relative proximity to beaches/waterfront and ease of getting to LAX. Both proved correct. Easy access to freeways and close by shopping (would be walking distance, but across some busy roads).  It wasn't very convenient to Hollywood or downtown or the hiking north of Pasadena, but traffic was easy on the weekends; horrific Friday afternoon and evening.  Charge for parking. Not the classiest clientele in the breakfast area. Rooms clean, with sitting area. Relatively small bathrooms.  Did not experience airport noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r464290797-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>464290797</t>
+  </si>
+  <si>
+    <t>Too loud</t>
+  </si>
+  <si>
+    <t>My room faced the new Metro train which goes by about every 5 minutes and sounds like a loud whooshing sound.  Many guests that are very young and like to party.Will definately find a more business oriented hotel away from a train in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My room faced the new Metro train which goes by about every 5 minutes and sounds like a loud whooshing sound.  Many guests that are very young and like to party.Will definately find a more business oriented hotel away from a train in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r463919601-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>463919601</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Less frills version of Residence Inn</t>
+  </si>
+  <si>
+    <t>I arrived at this property on a rare rainy night in Los Angeles.  The entrance is behind the property.  There is a large self parking lot in front of the entrance that is fairly well lit.  Very casual bright lobby area, with a breakfast room off to the left, and a small gym down the hallway.  I noticed a pool, but too rainy and cold to swim.  My room was small, but efficient. There was a kitchen with a large refrigerator, stove, sink, dishwasher and coffee maker.  There is a nice work desk with desk lamp, and facing it was a 32"+ flat screen and couch!  the bed was comfortable.  the room was clean, and the room had a lived in feel.  There is a Greenline Metro station just behind the property. Trains come and go every twenty minutes or so.  They weren't too loud, but the sound of rain may have helped dampen the sound?  Breakfast was included and consisted of a pastries, mixed fruit, cereals and oatmeal. Coffee and fruit drinks were also included.  For the price I paid, it was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at this property on a rare rainy night in Los Angeles.  The entrance is behind the property.  There is a large self parking lot in front of the entrance that is fairly well lit.  Very casual bright lobby area, with a breakfast room off to the left, and a small gym down the hallway.  I noticed a pool, but too rainy and cold to swim.  My room was small, but efficient. There was a kitchen with a large refrigerator, stove, sink, dishwasher and coffee maker.  There is a nice work desk with desk lamp, and facing it was a 32"+ flat screen and couch!  the bed was comfortable.  the room was clean, and the room had a lived in feel.  There is a Greenline Metro station just behind the property. Trains come and go every twenty minutes or so.  They weren't too loud, but the sound of rain may have helped dampen the sound?  Breakfast was included and consisted of a pastries, mixed fruit, cereals and oatmeal. Coffee and fruit drinks were also included.  For the price I paid, it was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r454884336-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>454884336</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Many problems with room</t>
+  </si>
+  <si>
+    <t>- Room smoke detector was missing; wires dangling down where smoke detector should have been, yikes.- Hot water in shower and sink ran alternately hot/cold; hotel "engineer" came to fix the problem but reported everything was fine, which it was not. Huge shock when cold water poured out of lukewarm shower.- cable TV channels - some, not all -  had intermittent reception.- access to Douglas Green Line Metro train station was complicated. Better choice is Residence Inn El Segundo, one block away from Metro.+ front desk staff offered another room but we did not change because of the hassle of moving.+ room itself was clean, adequate light, quiet, typical breakfast included with room fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>- Room smoke detector was missing; wires dangling down where smoke detector should have been, yikes.- Hot water in shower and sink ran alternately hot/cold; hotel "engineer" came to fix the problem but reported everything was fine, which it was not. Huge shock when cold water poured out of lukewarm shower.- cable TV channels - some, not all -  had intermittent reception.- access to Douglas Green Line Metro train station was complicated. Better choice is Residence Inn El Segundo, one block away from Metro.+ front desk staff offered another room but we did not change because of the hassle of moving.+ room itself was clean, adequate light, quiet, typical breakfast included with room fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r452414964-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>452414964</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>There is Something Very Wrong with this Hotel...</t>
+  </si>
+  <si>
+    <t>I stayed at this property in November, 2016, so about two months ago...and I'm still bothered by this visit.  I think the overall problem I witnessed:  The hotel is understaffed.  Both evenings that I was there, there was only one person at the front desk...and the staffer was overwhelmed by the number of people needing attention.  As a result, the customer service was poor.My bathroom sink had no hot water (although, thankfully, the shower did).  Morning #1, I called the front desk asking that it be repaired; I was told that there was no engineer on duty.  Thus, it never got fixed.Bed wasn't very comfortable.Unless the staffing/customer service issues are corrected, Marriott should remove its name and flag.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this property in November, 2016, so about two months ago...and I'm still bothered by this visit.  I think the overall problem I witnessed:  The hotel is understaffed.  Both evenings that I was there, there was only one person at the front desk...and the staffer was overwhelmed by the number of people needing attention.  As a result, the customer service was poor.My bathroom sink had no hot water (although, thankfully, the shower did).  Morning #1, I called the front desk asking that it be repaired; I was told that there was no engineer on duty.  Thus, it never got fixed.Bed wasn't very comfortable.Unless the staffing/customer service issues are corrected, Marriott should remove its name and flag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r451568860-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>451568860</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Overall Bad Service</t>
+  </si>
+  <si>
+    <t>When I first checked in, I was told that I would have to pay an additional $250.00 because of the new renovations.  The stay was uneventful and I checked out.  I discovered that I was overcharged almost $1,200.00. I called customer care twice.  The first time the agent said they would send an e-mail to the manger at the hotel. After a week with no resolution, I called again. The 2nd time I called, I spoke with an agent who was full of 'dear's' and 'oh, you do exist'.  It was a truly disgusting encounter and I suspect my experience with TownePlace Suites is not over.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>When I first checked in, I was told that I would have to pay an additional $250.00 because of the new renovations.  The stay was uneventful and I checked out.  I discovered that I was overcharged almost $1,200.00. I called customer care twice.  The first time the agent said they would send an e-mail to the manger at the hotel. After a week with no resolution, I called again. The 2nd time I called, I spoke with an agent who was full of 'dear's' and 'oh, you do exist'.  It was a truly disgusting encounter and I suspect my experience with TownePlace Suites is not over.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1131,1313 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_781.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Atepower32</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Charley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r582324607-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The lovely lady at the front desk was very nice and did a great job. The room itself smelled like mildew and dusty. I think In that area having to pay for parking is a little stupid. Free breakfast was not good.More</t>
   </si>
   <si>
+    <t>Reneetravels2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r575984981-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>I had a free night because of my rewards from Marriott, so I figured I would try this hotel. Very pleased with the location &amp; the property. I arrived a few minutes after 3:00 PM &amp; didn’t think they would have my room ready, but it was. The girl who checked me in was knowledgeable &amp; efficient. I was very pleased with my check-in. The rooms were bigger then I had pictured. Full kitchen &amp; a nice big desk along with a pullout couch. The bath amenities were lovely as well. Since these suites are designed w/long-term guests in mind they have full size shower gel, shampoo &amp; conditioner in the shower. The property is well maintained &amp; the pool area looked clean as well. They have a free breakfast &amp; the fitness room is open 24 hours. Parking is $15 a day &amp; is on-site. Earplugs are also provided, but I could not hear any outside noise. I could hear our neighbors talking for a bit. They don’t offer Netflix like many of the Marriott Brands now do. I can be a hotel snob, but I would definitely come back here. The metro link is very close. More</t>
   </si>
   <si>
+    <t>From_South</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r566724115-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Well located to LAX (4 miles).Room have a small and convenient kitchen.Regular breakfast.Lousy check-in.$12 for parking can't see the reason for that (large parking lot).No recognition for Gold members.Terrible house keeping, room stayed dirty, shower soap dispenser empty (good to realize that when in the shower).Will come back? Only with a very atracttive rateMore</t>
   </si>
   <si>
+    <t>Gary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r565173219-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>There is no sound insulation in the walls, and the windows do not seal tightly. You hear every noise from the neighboring room. You hear your neighbors talking, TV, shower, snoring, toilet, and doors. You get a lot of loud road noise coming through and around the very poor quality windows. The windows do not seal well. A whole lot of loud road noise comes through the outside wall as well. I stayed in 5 different Marriott Hotels during my 7 night LA tour and this Hotel is the only one I do not recommend, because of the extreme amount of inside and outside noise. Price was high for rooms that have major loud noise issues.   More</t>
   </si>
   <si>
+    <t>Lissydiane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r552279990-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide...We stayed here 7 nights this past week.  The reason for our trip was the Rose Parade, Bowl and Disneyland.  This was in a good location for hitting all of our spots.  And very close to the airport which made arriving and leaving a smooth process.  Also, it was hard finding the type of accomodations we like having and this place was perfect.  We like "condo" style hotels so our group has room to spread out.  We had a 2 bedroom, 1 bath with full kitchen.  Sofa also pulled out.  Plenty of room for our party of 5.  And the fact that breakfast is provided was an added bonus.  Rooms are very clean.  I loved the fact that the towels were nice and big!  The reasons I did not rate it a 5 are mainly for my personal checklist...these probably don't matter to most people.  1. no full length mirror 2. lack of total mirrors (only 2) 3. Breakfast selection the same everyday (although I appreciate it being there, most people probably don't stay a full week) 4. The flow of the breakfast area causes back ups.  A little rearrangement would fix that right up.  So like I said tiny little things and they would not prevent me from booking this hotel again.  It really is a great place.  Staff very friendly.  The train that runs along it didn't bother us at all but they are kind enough to provide ear plugs just in case.  But we barely noticed it.  More</t>
   </si>
   <si>
+    <t>livelaughaloha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r549334304-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Needed a hotel near LAX as we arrived late on Christmas night (eventually staying in Anaheim). Location was a short uber ride from LAX, easy with no traffic. There to greet us at the front desk was Rolando who was really nice and helpful (thankful for him to work on Christmas night). Room was equipped with a full kitchen which made it easy for us to heat up some pizza which you could buy near front desk. The studio also had a couch/pull out bed. Breakfast in the morning was from 6a-9a, and provided everything we could want: cereal, bagels, waffles, oatmeal, fruits, toast, yogurt, orange juice, coffee, hot chocolate etc. The light rail is nearby. And across the street are some shops like REI, Old Navy, etc. Very affordable cost, will definitely make this a part of our future LA visits! Good job everyone! More</t>
   </si>
   <si>
+    <t>drjmr2000_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r543418798-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Howard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r543199053-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>BruceK323</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r511082138-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>My family and I just stayed here for one night (wish we needed to stay more - this is a perfect long term stay property). The hotel is very easy to find with great freeway and Metro access. The property is exactly what it is designed to be. It has every amenity it promised, including a clean full suite with full kitchen (and a great closet!!! - I have stayed at much more expensive hotels with a much less organized closet). We appreciated that every person that we came into contact with was smiling and pleasant. Every area we visited from our room, to the gym, to the breakfast area, and the restrooms was clean and well maintained. The breakfast was good and hot. The parking was convenient. The best part of the hotel was its staff.and their commitment to making this property a wonderful place to stayMore</t>
   </si>
   <si>
+    <t>lcjt01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r506778943-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off...I stayed at this hotel for business July 9 to July 28, 2017. Originally I was in room 410 but my shower had no hot water for 3 days so they were gracious enough to put me in room 407 as they tried to fix the problem a couple of times but after the same thing happening they moved me, which I was very appreciative about that to also include comping me on the parking fee due to the shower problem,  because there is a parking fee during your stay. Both rooms were the same design, one full bed, full refrigerator, microwave, dishwasher, oven and free wifi. The bathrooms are very small with a tiny sink counter. I noticed there were no full length mirrors in either room though.  Room 410 faces the metro train which goes by every few minutes starting early morning and into the night for a certain period, not sure if the hotel has thought about a noise barrier like planting more trees that can grow into big trees to block out the metro line noise but not sure about how to block out the traffic noise on Aviation as Room 407 faces Aviation Blvd where there is a lot of traffic and they had construction going on to include construction jackhammering at 2:00am in the morning, so between the 2 rooms there is constant noise and also during my stay the fire alarms went off two times with either someone burning their food or someone had set off something in their room that the alarm kept going off and on one night, so I did not really get a good nights sleep throughout my stay. The hotel does have a recycle bin but you have to give your recycles to the front desk for them to take. I wished they would have recycle bins throughout the hotel. There is a outside swimming pool and they do have an exercise room.  The breakfast area is very small that it can get congested with people first thing in the morning and the breakfast is basic to include sausage patties and egg patties every day and for three weeks it does get tiring having the same thing over and over so there was no switching between bacon and the sausage. They do have a public lobby computer but there is no privacy to use it as it faces the people walking by as well as the front desk and there was not a lot of space to hold your papers.  The hotel does allow dogs and I noticed they have doggie bags outside on the lawn for the dogs business. Across the street is Old Navy, Barnes and Nobles, Trader Joes and some restaurants. The hotel is also a few minutes away from Northrop Grumman as well as Cosco, a Food 4 Less grocery store at Rosecrans and Ocean Park which is much closer than the Ralphs grocery store which is 10 minutes away on Manhattan Beach Blvd, a Target 10 minutes away also on Manhattan Beach Blvd, a GREAT pizza place called Valentino's Pizza on Aviation and Manhattan Beach Blvd., a FedEx Office at Rosecrans and Ocean Park, a gas station a couple blocks away on Aviation Blvd, a soccer/sports track 6 blocks away on Aviation Blvd, the movie studio MBS is also a block away which was cool to know and the Manhattan Beach itself is also 10 minutes away. The hotel staff to include the housekeeping staff were all very helpful and pleasant which makes a long business stay better and more appreciative.More</t>
   </si>
   <si>
+    <t>Living_Simply40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r498249418-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>The hotel is conveniently located to several restaurants, malls, and freeway. Rooms are nicely sized and contain a microwave, refrigerator, iron, etc.  Washing is available on site,  Breakfast was a nice treat and covered most what anyone would want.  Front desk staff were warm and friendly.More</t>
   </si>
   <si>
+    <t>ips28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r489500488-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>April Ann S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r481104681-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>This hotel was newer and the location was great. We were 10-15 minutes from shops, restaurants and the beach. Another 20 minutes and we were downtown. It is only a 10 minute drive from LAX. Rooms were large and very clean. Bed was super cozy as well. This hotel and location are not fancy but I would certainly stay here again when visiting the LA area. I really enjoyed my stay.More</t>
   </si>
   <si>
+    <t>V H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r475778099-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -498,6 +543,9 @@
     <t>Very nice and to the Marriot standards. Room small but accomodating. Staff ok no one wowed me on my stay with outstanding customer service. No explanation at check in on amenities other than the breakfast. I had to ask about other amenities the hotel is close to the rail car and you hear the noise. No one mentioned the cost of daily parking at check in and had I not read it on the website this would have caused a problem when I recieved my bill. Not sure why this location has a $10 daily parking fee but I would look around next time for a room with free parking at $150 a night parking in this unsecure lot should be included. Very dissapointed with that charge from the Marriot. More</t>
   </si>
   <si>
+    <t>Attea146</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r464393445-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>Originally selected because of relative proximity to beaches/waterfront and ease of getting to LAX. Both proved correct. Easy access to freeways and close by shopping (would be walking distance, but across some busy roads).  It wasn't very convenient to Hollywood or downtown or the hiking north of Pasadena, but traffic was easy on the weekends; horrific Friday afternoon and evening.  Charge for parking. Not the classiest clientele in the breakfast area. Rooms clean, with sitting area. Relatively small bathrooms.  Did not experience airport noise.More</t>
   </si>
   <si>
+    <t>ssu11321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r464290797-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>My room faced the new Metro train which goes by about every 5 minutes and sounds like a loud whooshing sound.  Many guests that are very young and like to party.Will definately find a more business oriented hotel away from a train in the future.More</t>
   </si>
   <si>
+    <t>Phil T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r463919601-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>I arrived at this property on a rare rainy night in Los Angeles.  The entrance is behind the property.  There is a large self parking lot in front of the entrance that is fairly well lit.  Very casual bright lobby area, with a breakfast room off to the left, and a small gym down the hallway.  I noticed a pool, but too rainy and cold to swim.  My room was small, but efficient. There was a kitchen with a large refrigerator, stove, sink, dishwasher and coffee maker.  There is a nice work desk with desk lamp, and facing it was a 32"+ flat screen and couch!  the bed was comfortable.  the room was clean, and the room had a lived in feel.  There is a Greenline Metro station just behind the property. Trains come and go every twenty minutes or so.  They weren't too loud, but the sound of rain may have helped dampen the sound?  Breakfast was included and consisted of a pastries, mixed fruit, cereals and oatmeal. Coffee and fruit drinks were also included.  For the price I paid, it was a good value.More</t>
   </si>
   <si>
+    <t>Arlene K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r454884336-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -585,6 +642,9 @@
     <t>- Room smoke detector was missing; wires dangling down where smoke detector should have been, yikes.- Hot water in shower and sink ran alternately hot/cold; hotel "engineer" came to fix the problem but reported everything was fine, which it was not. Huge shock when cold water poured out of lukewarm shower.- cable TV channels - some, not all -  had intermittent reception.- access to Douglas Green Line Metro train station was complicated. Better choice is Residence Inn El Segundo, one block away from Metro.+ front desk staff offered another room but we did not change because of the hassle of moving.+ room itself was clean, adequate light, quiet, typical breakfast included with room fee.More</t>
   </si>
   <si>
+    <t>dcdude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r452414964-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
   </si>
   <si>
@@ -610,6 +670,9 @@
   </si>
   <si>
     <t>I stayed at this property in November, 2016, so about two months ago...and I'm still bothered by this visit.  I think the overall problem I witnessed:  The hotel is understaffed.  Both evenings that I was there, there was only one person at the front desk...and the staffer was overwhelmed by the number of people needing attention.  As a result, the customer service was poor.My bathroom sink had no hot water (although, thankfully, the shower did).  Morning #1, I called the front desk asking that it be repaired; I was told that there was no engineer on duty.  Thus, it never got fixed.Bed wasn't very comfortable.Unless the staffing/customer service issues are corrected, Marriott should remove its name and flag.More</t>
+  </si>
+  <si>
+    <t>psyche h</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d223954-r451568860-TownePlace_Suites_Los_Angeles_LAX_Manhattan_Beach-Hawthorne_California.html</t>
@@ -1135,43 +1198,47 @@
       <c r="A2" t="n">
         <v>42494</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1191,50 +1258,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42494</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1246,56 +1317,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42494</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1309,50 +1384,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42494</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1370,47 +1449,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42494</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1429,50 +1512,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42494</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1486,50 +1573,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42494</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1543,50 +1634,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42494</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1600,50 +1695,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42494</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1663,50 +1762,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42494</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1726,50 +1829,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42494</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1789,50 +1896,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42494</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1850,56 +1961,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42494</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1917,50 +2032,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42494</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1976,56 +2095,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42494</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2037,56 +2160,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42494</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2098,56 +2225,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42494</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2165,56 +2296,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42494</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2230,56 +2365,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42494</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2297,56 +2436,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42494</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2362,56 +2505,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42494</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2429,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
